--- a/public/templates/Template_Upload_Item.xlsx
+++ b/public/templates/Template_Upload_Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\metronic\metronic-react\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9813096D-9FCE-4A4A-9EBC-71FE8792CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514B1778-821A-47DC-B880-5856D96F27E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -411,15 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,14 +439,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>